--- a/data/trans_dic/P34_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>29,49%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,97%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>23,7%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>21,49%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>20,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>18,24%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>26,54%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,97; 31,65</t>
+          <t>21,99; 30,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 27,41</t>
+          <t>20,11; 26,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 23,92</t>
+          <t>17,0; 23,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,83; 33,04</t>
+          <t>15,42; 23,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,91</t>
+          <t>26,37; 33,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 19,85</t>
+          <t>25,37; 32,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,7; 18,71</t>
+          <t>14,56; 19,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 26,59</t>
+          <t>14,51; 19,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,11; 24,38</t>
+          <t>13,83; 18,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,37; 22,62</t>
+          <t>10,64; 15,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 20,37</t>
+          <t>20,76; 26,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,37; 28,88</t>
+          <t>20,25; 25,69</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,81; 23,9</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 22,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 20,39</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>13,61; 18,12</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24,13; 28,87</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 28,5</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>25,1%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>27,31%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,32%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>17,87%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>23,95%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>22,32%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>22,09%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>22,82%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 36,08</t>
+          <t>26,62; 36,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,57; 31,62</t>
+          <t>21,91; 31,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 30,04</t>
+          <t>20,91; 30,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 33,95</t>
+          <t>16,12; 27,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,94</t>
+          <t>21,33; 33,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 21,36</t>
+          <t>20,22; 31,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 23,08</t>
+          <t>14,7; 21,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 22,71</t>
+          <t>14,71; 20,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 27,21</t>
+          <t>15,67; 22,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 25,42</t>
+          <t>13,77; 20,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,26</t>
+          <t>13,23; 23,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 27,51</t>
+          <t>13,13; 22,72</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 27,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 24,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 24,99</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 22,07</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 27,25</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 25,22</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>24,96%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>24,23%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>21,4%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>22,66%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22,85%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 33,24</t>
+          <t>16,34; 32,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,93; 34,25</t>
+          <t>17,7; 31,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 33,05</t>
+          <t>18,04; 33,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>23,91; 50,49</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>17,98; 32,57</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 23,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 27,63</t>
+          <t>18,84; 33,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>11,91; 23,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 27,24</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 26,46</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>19,79; 30,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>16,62; 26,81</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>18,04; 27,61</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,56; 30,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,13; 25,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 28,35</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 36,42</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>22,44%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>22,78%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>21,24%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>25,69%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,82; 30,95</t>
+          <t>24,79; 30,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 27,93</t>
+          <t>22,42; 27,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,32; 25,71</t>
+          <t>20,29; 25,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 32,47</t>
+          <t>18,39; 25,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 20,12</t>
+          <t>25,82; 31,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 19,32</t>
+          <t>25,31; 31,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 19,64</t>
+          <t>16,25; 20,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 24,93</t>
+          <t>15,45; 19,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,89</t>
+          <t>15,55; 19,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 22,87</t>
+          <t>13,3; 17,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 21,98</t>
+          <t>20,06; 25,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,79; 27,77</t>
+          <t>19,42; 24,64</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 24,88</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 22,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 21,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 20,69</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>23,73; 27,71</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 27,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>424449</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>384676</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>332688</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>305797</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67544</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66229</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>307948</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>312502</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>297270</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>233850</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>56373</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>53990</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>732397</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>697178</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>629959</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>539647</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>123917</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>120219</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>362765; 504004</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>331325; 443207</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>279181; 386328</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>251595; 377724</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60405; 76296</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>57147; 74051</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>262984; 357548</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>265142; 359234</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>251332; 343935</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>190170; 286008</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49388; 63140</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>47515; 60295</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>650036; 826135</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>628387; 767012</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>564479; 705116</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>465304; 619873</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>112683; 134786</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>109768; 131091</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>429271</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>363216</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>342594</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>281357</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19736</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17981</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>248737</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>242423</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>259093</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>233914</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11717</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11724</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>678008</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>605639</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>601686</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>515272</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>31452</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>29706</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>365814; 504601</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>302178; 430672</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>288327; 418154</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>220868; 370646</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15416; 24521</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14487; 22488</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>204577; 303387</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>201714; 284510</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>216534; 304849</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>191138; 286271</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8674; 15079</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8702; 15062</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>590144; 764630</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>540351; 686270</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>531231; 690059</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>433869; 608805</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26403; 37567</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>24083; 34784</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100613</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>104452</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>107567</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>148342</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>105520</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68752</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>83157</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78740</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>206133</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>173204</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>190723</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>227082</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>69081; 136899</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74839; 134405</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>76274; 141833</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>99681; 210497</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76773; 135377</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48552; 96295</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61011; 112208</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49686; 108978</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>162390; 256685</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>133970; 210432</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>155995; 236682</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>172299; 301880</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>556.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>954333</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>852343</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>782848</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>735497</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>87280</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>84210</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>662205</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>623678</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>639520</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>546504</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>68090</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65714</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1616538</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1476021</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1422369</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1282001</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>155369</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>149925</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>854341; 1056108</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>773215; 943895</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>698860; 876106</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>628847; 859459</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77817; 95941</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75153; 93522</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>585881; 738079</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>556902; 690286</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>561319; 711562</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>477217; 629417</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>60883; 76592</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>58466; 74176</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1489203; 1754319</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1369476; 1600075</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1302726; 1551434</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1168917; 1449504</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>143525; 167594</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>137618; 162205</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
